--- a/PinOut Nucleo.xlsx
+++ b/PinOut Nucleo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73dfd8bce089d115/Eirbot/Coupe 23/eirbot-2023-2A/roulante/Mbed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\OneDrive\Eirbot\Coupe 23\eirbot-2023-2A\roulante\Mbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{61928F11-47AA-4255-BB54-42059DA535A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1392755-BBC3-494A-8830-BA63154EC1B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401EC485-A641-4BD7-AAE8-08A12EE4ADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5220" yWindow="348" windowWidth="7500" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{C5C556AA-2340-4B55-93B2-7F9C24D0CA21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{C5C556AA-2340-4B55-93B2-7F9C24D0CA21}"/>
   </bookViews>
   <sheets>
     <sheet name="Alban &lt;3" sheetId="6" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="345">
   <si>
     <t>PA_8</t>
   </si>
@@ -1738,9 +1738,6 @@
     <t>PIN_AVERTISSEMENT</t>
   </si>
   <si>
-    <t>PIN_PINCE_SERVOS</t>
-  </si>
-  <si>
     <t>PIN_FUNNY_SERVOS</t>
   </si>
   <si>
@@ -1759,9 +1756,6 @@
     <t>Déclenchement du déguisement</t>
   </si>
   <si>
-    <t>Déclenchement des pinces</t>
-  </si>
-  <si>
     <t>Avertissement de distance</t>
   </si>
   <si>
@@ -1778,6 +1772,18 @@
   </si>
   <si>
     <t>NON TERMINE</t>
+  </si>
+  <si>
+    <t>PIN_PINCE_SERVOS_2</t>
+  </si>
+  <si>
+    <t>PIN_PINCE_SERVOS_1</t>
+  </si>
+  <si>
+    <t>Déclenchement des pinces bit1</t>
+  </si>
+  <si>
+    <t>Déclenchement des pinces bit2</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2234,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{42AF9439-B8B8-42CE-8063-2DE13A3BBA44}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3207,46 +3227,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D38015E7-EF77-4E2A-A5D4-841FBDF51D17}" name="Tableau1" displayName="Tableau1" ref="A1:V51" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D38015E7-EF77-4E2A-A5D4-841FBDF51D17}" name="Tableau1" displayName="Tableau1" ref="A1:V51" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:V51" xr:uid="{D38015E7-EF77-4E2A-A5D4-841FBDF51D17}"/>
   <tableColumns count="22">
-    <tableColumn id="2" xr3:uid="{61D714C3-4990-4EA9-B04A-D75138B47D0E}" name="Pin nucleo" dataDxfId="34" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{DB574504-806B-4C4A-BD99-C588F15F48E7}" name="IO type" dataDxfId="33" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{F48DB1B8-8119-4DA2-83C6-1A61F034BB75}" name="utilisable" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{FC7405A8-9FA8-485E-B0A7-0F8DB413A113}" name="Commentaire" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{1C730BAA-2E56-4A4A-947B-9BF09D1ED029}" name="ADC" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{318B45E5-3318-4071-8C8A-75DDF4E3D217}" name="DAC" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="1" xr3:uid="{D052B14A-AB19-4436-8765-953536090170}" name="UART" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{71C23CB8-1C96-46E2-B648-A227D481EF65}" name="UART / USART" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{C23D58F9-8953-43C9-9C58-9E719C52AB8F}" name="TIM1" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{990487E8-4916-4743-9D80-79A8194DF99E}" name="TIM2" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{17605EA1-3B55-4FB9-B2B2-0FD3E473BE5E}" name="TIM3" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{CA614BDB-E31D-4959-9071-C5313BFEA48B}" name="TIM4" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{AB45BBD2-3710-4AC6-880A-47CAA9922DE9}" name="TIM5" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{E4DD5FFD-955F-4364-9D75-DDDBE712894E}" name="TIM8" dataDxfId="21" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" xr3:uid="{6C10D69D-EC9C-4715-9433-EDC6A2E3C9E0}" name="TIM9 - 14" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{CCCF1928-C28E-4A57-9E79-55C5FEC7C4B9}" name="SPI1" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{7DA2A7CC-A375-44E9-971C-FEA4C4965F64}" name="SPI2" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="18" xr3:uid="{85215E42-C1C8-4CC6-A9E8-B8A81B472462}" name="SPI3" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="19" xr3:uid="{B4C3F447-43E8-4398-AE32-B99741DF14D3}" name="I2C1" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{9F8BCF31-AFB4-47F9-A6B0-3BF66B4F988C}" name="I2C2" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{B8689A5E-EBC9-4171-9A8F-B91361B86AC5}" name="I2C3" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="22" xr3:uid="{5B424CAA-8A3F-48A9-A7E1-EEF47B764DC9}" name="CAN" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{61D714C3-4990-4EA9-B04A-D75138B47D0E}" name="Pin nucleo" dataDxfId="36" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{DB574504-806B-4C4A-BD99-C588F15F48E7}" name="IO type" dataDxfId="35" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{F48DB1B8-8119-4DA2-83C6-1A61F034BB75}" name="utilisable" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{FC7405A8-9FA8-485E-B0A7-0F8DB413A113}" name="Commentaire" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{1C730BAA-2E56-4A4A-947B-9BF09D1ED029}" name="ADC" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{318B45E5-3318-4071-8C8A-75DDF4E3D217}" name="DAC" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{D052B14A-AB19-4436-8765-953536090170}" name="UART" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{71C23CB8-1C96-46E2-B648-A227D481EF65}" name="UART / USART" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{C23D58F9-8953-43C9-9C58-9E719C52AB8F}" name="TIM1" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{990487E8-4916-4743-9D80-79A8194DF99E}" name="TIM2" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{17605EA1-3B55-4FB9-B2B2-0FD3E473BE5E}" name="TIM3" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{CA614BDB-E31D-4959-9071-C5313BFEA48B}" name="TIM4" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{AB45BBD2-3710-4AC6-880A-47CAA9922DE9}" name="TIM5" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{E4DD5FFD-955F-4364-9D75-DDDBE712894E}" name="TIM8" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{6C10D69D-EC9C-4715-9433-EDC6A2E3C9E0}" name="TIM9 - 14" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{CCCF1928-C28E-4A57-9E79-55C5FEC7C4B9}" name="SPI1" dataDxfId="21" dataCellStyle="Normal 2"/>
+    <tableColumn id="17" xr3:uid="{7DA2A7CC-A375-44E9-971C-FEA4C4965F64}" name="SPI2" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="18" xr3:uid="{85215E42-C1C8-4CC6-A9E8-B8A81B472462}" name="SPI3" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="19" xr3:uid="{B4C3F447-43E8-4398-AE32-B99741DF14D3}" name="I2C1" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{9F8BCF31-AFB4-47F9-A6B0-3BF66B4F988C}" name="I2C2" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{B8689A5E-EBC9-4171-9A8F-B91361B86AC5}" name="I2C3" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="22" xr3:uid="{5B424CAA-8A3F-48A9-A7E1-EEF47B764DC9}" name="CAN" dataDxfId="15" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7DF57ABB-C894-4ECF-B4AA-93B83259B523}" name="Tableau6" displayName="Tableau6" ref="B2:E38" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B2:E38" xr:uid="{7DF57ABB-C894-4ECF-B4AA-93B83259B523}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7DF57ABB-C894-4ECF-B4AA-93B83259B523}" name="Tableau6" displayName="Tableau6" ref="B2:E39" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B2:E39" xr:uid="{7DF57ABB-C894-4ECF-B4AA-93B83259B523}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{38D66C56-DFDF-4410-B584-0535E1A9B089}" name="Description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{529117A2-67FE-4B44-B1B8-6F4BA48AA5E6}" name="Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1FEFD234-1201-4A2E-9C41-B40EBA41620C}" name="Pin Arduino" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{38D66C56-DFDF-4410-B584-0535E1A9B089}" name="Description" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{529117A2-67FE-4B44-B1B8-6F4BA48AA5E6}" name="Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{1FEFD234-1201-4A2E-9C41-B40EBA41620C}" name="Pin Arduino" dataDxfId="8">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A424371-67EA-4EC5-9EFC-63D95BCAD360}" name="Pins" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A424371-67EA-4EC5-9EFC-63D95BCAD360}" name="Pins" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5472,7 +5492,7 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M1" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
@@ -6807,17 +6827,17 @@
     <mergeCell ref="M1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H43 J2">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:Q38">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K48">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6827,7 +6847,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49E5470-85B3-417C-9FA3-82F2CE0AD1D8}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E3"/>
@@ -6838,18 +6858,18 @@
     <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>301</v>
       </c>
       <c r="B1">
         <f>ROWS(_xlfn.UNIQUE(B3:B100))-1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:B6">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(BDD!B3),ISERROR(MATCH(_xlfn.ANCHORARRAY(BDD!B3), Tableau6[Pins],0)))</f>
+        <f t="array" ref="B3:B5">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(BDD!B3),ISERROR(MATCH(_xlfn.ANCHORARRAY(BDD!B3), Tableau6[Pins],0)))</f>
         <v>PC_10</v>
       </c>
       <c r="C3" t="str" cm="1">
@@ -6863,7 +6883,7 @@
         <v>SPI3_SCK</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <v>PC_11</v>
       </c>
@@ -6878,7 +6898,7 @@
         <v>SPI3_MISO</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="str">
         <v>PC_9</v>
       </c>
@@ -6893,82 +6913,67 @@
         <v>I2C3_SDA</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="str">
-        <v>PA_5</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="str" cm="1">
-        <f t="array" ref="C6:G6">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B6,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B6,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
-        <v>ADC12_IN5</v>
-      </c>
-      <c r="D6" t="str">
-        <v>DAC_OUT2</v>
-      </c>
-      <c r="E6" t="str">
-        <v>TIM2_CH1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>TIM8_CH1N</v>
-      </c>
-      <c r="G6" t="str">
-        <v>SPI1_SCK</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="array" ref="C6">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B6,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B6,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="str" cm="1">
         <f t="array" ref="C7">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B7,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B7,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="str" cm="1">
         <f t="array" ref="C8">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B8,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B8,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="str" cm="1">
         <f t="array" ref="C9">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B9,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B9,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="str" cm="1">
         <f t="array" ref="C10">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B10,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B10,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="str" cm="1">
         <f t="array" ref="C11">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B11,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B11,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="str" cm="1">
         <f t="array" ref="C12">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B12,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B12,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="str" cm="1">
         <f t="array" ref="C13">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B13,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B13,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="str" cm="1">
         <f t="array" ref="C14">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B14,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B14,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" t="str" cm="1">
         <f t="array" ref="C15">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B15,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B15,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" t="str" cm="1">
         <f t="array" ref="C16">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(B16,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(B16,Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v/>
@@ -7059,16 +7064,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D213D390-B234-4EBE-9A78-92CE03D84A33}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.21875" style="7" customWidth="1"/>
     <col min="4" max="4" width="28.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="20" customWidth="1"/>
@@ -7092,13 +7097,13 @@
         <v>302</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>254</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -7840,7 +7845,7 @@
         <v>262</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>299</v>
@@ -7874,7 +7879,7 @@
         <v>263</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>327</v>
@@ -7900,7 +7905,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>328</v>
@@ -7984,10 +7989,10 @@
         <v>292</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D32" s="9" t="str">
         <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
@@ -8000,69 +8005,72 @@
         <f t="array" ref="F32:I32">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
         <v>ADC123_IN0</v>
       </c>
-      <c r="G32" s="33" t="str">
+      <c r="G32" s="7" t="str">
         <v>UART4_TX</v>
       </c>
-      <c r="H32" s="33" t="str">
+      <c r="H32" s="7" t="str">
         <v>TIM2_CH1</v>
       </c>
-      <c r="I32" s="33" t="str">
+      <c r="I32" s="7" t="str">
         <v>TIM5_CH1</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="17" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D33" s="9" t="str">
         <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
-        <v>A2</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>166</v>
+        <v>D13</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F33" s="32" t="str" cm="1">
-        <f t="array" ref="F33:G33">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
-        <v>ADC12_IN4</v>
+        <f t="array" ref="F33:J33">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
+        <v>ADC12_IN5</v>
       </c>
       <c r="G33" s="33" t="str">
-        <v>DAC_OUT1</v>
-      </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+        <v>DAC_OUT2</v>
+      </c>
+      <c r="H33" s="33" t="str">
+        <v>TIM2_CH1</v>
+      </c>
+      <c r="I33" s="33" t="str">
+        <v>TIM8_CH1N</v>
+      </c>
+      <c r="J33" s="33" t="str">
+        <v>SPI1_SCK</v>
+      </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
-        <v>293</v>
-      </c>
+      <c r="A34" s="45"/>
       <c r="B34" s="17" t="s">
         <v>334</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="D34" s="9" t="str">
         <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
-        <v>en face de 5V</v>
+        <v>A2</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F34" s="32" t="str" cm="1">
-        <f t="array" ref="F34">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
-        <v>TIM2_CH1</v>
-      </c>
-      <c r="G34" s="33"/>
+        <f t="array" ref="F34:G34">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
+        <v>ADC12_IN4</v>
+      </c>
+      <c r="G34" s="33" t="str">
+        <v>DAC_OUT1</v>
+      </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
@@ -8070,33 +8078,29 @@
       <c r="L34" s="33"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="44" t="s">
+        <v>293</v>
+      </c>
       <c r="B35" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D35" s="9" t="str">
         <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
-        <v>D5</v>
+        <v>en face de 5V</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="F35" s="32" t="str" cm="1">
-        <f t="array" ref="F35:I35">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
-        <v>TIM3_CH1</v>
-      </c>
-      <c r="G35" s="33" t="str">
-        <v>SPI1_MISO</v>
-      </c>
-      <c r="H35" s="33" t="str">
-        <v>SPI3_MISO</v>
-      </c>
-      <c r="I35" s="33" t="str">
-        <v>I2C3_SDA</v>
-      </c>
+        <f t="array" ref="F35">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
+        <v>TIM2_CH1</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
@@ -8104,30 +8108,30 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D36" s="9" t="str">
         <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
-        <v>D12</v>
+        <v>D5</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F36" s="32" t="str" cm="1">
         <f t="array" ref="F36:I36">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
-        <v>ADC12_IN6</v>
+        <v>TIM3_CH1</v>
       </c>
       <c r="G36" s="33" t="str">
-        <v>TIM3_CH1</v>
+        <v>SPI1_MISO</v>
       </c>
       <c r="H36" s="33" t="str">
-        <v>TIM13_CH1</v>
+        <v>SPI3_MISO</v>
       </c>
       <c r="I36" s="33" t="str">
-        <v>SPI1_MISO</v>
+        <v>I2C3_SDA</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -8136,81 +8140,123 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D37" s="9" t="str">
         <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
-        <v>diagonable basse D12</v>
+        <v>D12</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F37" s="32" t="str" cm="1">
-        <f t="array" ref="F37:G37">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
-        <v>TIM1_CH4</v>
+        <f t="array" ref="F37:I37">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
+        <v>ADC12_IN6</v>
       </c>
       <c r="G37" s="33" t="str">
-        <v>CAN1_RX</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+        <v>TIM3_CH1</v>
+      </c>
+      <c r="H37" s="33" t="str">
+        <v>TIM13_CH1</v>
+      </c>
+      <c r="I37" s="33" t="str">
+        <v>SPI1_MISO</v>
+      </c>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D38" s="36" t="str">
+      <c r="A38" s="44"/>
+      <c r="B38" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="9" t="str">
         <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
-        <v>A1</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>22</v>
+        <v>diagonable basse D12</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="F38" s="32" t="str" cm="1">
-        <f t="array" ref="F38:I38">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
-        <v>ADC123_IN1</v>
+        <f t="array" ref="F38:G38">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
+        <v>TIM1_CH4</v>
       </c>
       <c r="G38" s="33" t="str">
-        <v>UART4_RX</v>
-      </c>
-      <c r="H38" s="33" t="str">
-        <v>TIM2_CH2</v>
-      </c>
-      <c r="I38" s="33" t="str">
-        <v>TIM5_CH2</v>
-      </c>
+        <v>CAN1_RX</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="36" t="str">
+        <f>IF(ISERROR(VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE)),"",VLOOKUP(Tableau6[[#This Row],[Pins]],BDD!$J$3:$K$48,2,FALSE))</f>
+        <v>A1</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="32" t="str" cm="1">
+        <f t="array" ref="F39:I39">_xlfn._xlws.FILTER(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1),NOT(ISBLANK(_xlfn.XLOOKUP(Tableau6[[#This Row],[Pins]],Tableau1[Pin nucleo],Tableau1[[ADC]:[CAN]],"",0,1))),"")</f>
+        <v>ADC123_IN1</v>
+      </c>
+      <c r="G39" s="33" t="str">
+        <v>UART4_RX</v>
+      </c>
+      <c r="H39" s="33" t="str">
+        <v>TIM2_CH2</v>
+      </c>
+      <c r="I39" s="33" t="str">
+        <v>TIM5_CH2</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:A26"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B3:L38">
+  <conditionalFormatting sqref="B3:L31 B34:L39 B33:D33 F33:L33 D32:F32">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39 E3:E26 E30:E32">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E26 E30:E32 E38">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
